--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,14 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +773,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +820,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +867,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,38 +890,40 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F12" s="3">
         <v>11400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +933,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +980,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1027,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1094,40 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F17" s="3">
         <v>14900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1137,14 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,29 +1152,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-12100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-10800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1184,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1207,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,29 +1218,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1250,14 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,29 +1265,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-10900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-9800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1297,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,38 +1344,44 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1391,14 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1315,22 +1406,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1347,8 +1438,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1485,44 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1532,44 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-59800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1579,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1767,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,29 +1782,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,38 +1814,44 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-59800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-17300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-14800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1861,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1908,44 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-59800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-17300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-14800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1955,49 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +2007,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,32 +2049,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>65300</v>
+      </c>
+      <c r="F41" s="3">
         <v>49300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>41000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>46400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>47700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>107800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,32 +2092,38 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>92800</v>
+      </c>
+      <c r="F42" s="3">
         <v>111700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>128600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>115300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>75500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>23200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,8 +2139,14 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2186,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,32 +2233,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,32 +2280,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>163200</v>
+      </c>
+      <c r="F46" s="3">
         <v>166600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>175700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>165600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>125500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>131400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,37 +2327,43 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>8000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>11100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>30000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2165,32 +2374,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2421,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2468,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,32 +2562,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,32 +2656,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>153300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>168500</v>
+      </c>
+      <c r="F54" s="3">
         <v>179500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>190300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>197900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>129400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>134700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,32 +2745,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2788,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,32 +2835,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,32 +2882,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F60" s="3">
         <v>7900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2929,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,13 +2976,19 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -2706,17 +2997,17 @@
         <v>500</v>
       </c>
       <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +3023,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,32 +3164,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,17 +3345,17 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>209200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>205500</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,32 +3418,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-198100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-182600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-169800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-156000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-144900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-85600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-75000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,32 +3606,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>160400</v>
+      </c>
+      <c r="F76" s="3">
         <v>171200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>182600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>192000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-85700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-75000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3700,49 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3752,44 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-59800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-17300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-14800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3799,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3822,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3436,13 +3833,13 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3453,11 +3850,11 @@
       <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3865,14 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +4100,44 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10800</v>
       </c>
-      <c r="G89" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +4147,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,38 +4170,40 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2100</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>-800</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-2100</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +4213,14 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,38 +4307,44 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F94" s="3">
         <v>18300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-70000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-52300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-13700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4354,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4561,44 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>79600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>120100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4608,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,38 +4655,44 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F102" s="3">
         <v>8500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-60100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-13600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>103300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4700,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,41 +905,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E12" s="3">
         <v>12000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E17" s="3">
         <v>16200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,32 +1182,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,32 +1252,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1100</v>
       </c>
       <c r="G20" s="3">
         <v>1100</v>
       </c>
       <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,32 +1302,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,41 +1390,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1406,11 +1452,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,8 +1469,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-59800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,32 +1852,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1100</v>
       </c>
       <c r="G32" s="3">
         <v>-1100</v>
       </c>
       <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-59800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-59800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2137,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E41" s="3">
         <v>31100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>107800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,35 +2185,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E42" s="3">
         <v>95000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>92800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>111700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>128600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>115300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>75500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>23200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2145,8 +2235,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,35 +2335,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E46" s="3">
         <v>133000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>163200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>166600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>175700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>165600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>125500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>131400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,29 +2435,32 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>14500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>8000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2470,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2380,35 +2485,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2685,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2577,26 +2697,26 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E54" s="3">
         <v>153300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>168500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>179500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>190300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>197900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>129400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>134700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +2877,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2841,35 +2975,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3025,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,8 +3125,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2991,7 +3137,7 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
@@ -3003,13 +3149,13 @@
         <v>500</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>400</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3325,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3351,14 +3519,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>209200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>205500</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-214300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-198100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-182600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-169800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-156000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-144900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-85600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-75000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E76" s="3">
         <v>146600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>160400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>171200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>182600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>192000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-85700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-75000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-59800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,13 +4022,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -3839,10 +4038,10 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3856,8 +4055,8 @@
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>100</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,40 +4392,41 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-400</v>
       </c>
       <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-400</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,41 +4540,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>26200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-70000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +4810,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>79600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>120100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-34200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-60100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>103300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,44 +919,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E12" s="3">
         <v>12900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E17" s="3">
         <v>16700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,35 +1212,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,35 +1286,35 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1100</v>
       </c>
       <c r="H20" s="3">
         <v>1100</v>
       </c>
       <c r="I20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,35 +1339,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-15200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,11 +1501,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,8 +1518,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-59800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1852,35 +1922,35 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1100</v>
       </c>
       <c r="H32" s="3">
         <v>-1100</v>
       </c>
       <c r="I32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-59800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-59800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,38 +2224,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E41" s="3">
         <v>49700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>107800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2275,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E42" s="3">
         <v>75100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>95000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>92800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>111700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>128600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>115300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>75500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>23200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,8 +2328,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,38 +2434,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E45" s="3">
         <v>9000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,38 +2487,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>254200</v>
+      </c>
+      <c r="E46" s="3">
         <v>133800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>163200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>166600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>175700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>165600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>125500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,32 +2540,35 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>14500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>8000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>30000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,8 +2578,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2488,38 +2593,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,38 +2805,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +2911,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>260900</v>
+      </c>
+      <c r="E54" s="3">
         <v>140400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>153300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>168500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>179500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>190300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>197900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>129400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>134700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,38 +3008,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,38 +3112,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,38 +3165,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,8 +3271,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3140,7 +3286,7 @@
         <v>600</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
@@ -3152,13 +3298,13 @@
         <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>400</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,38 +3483,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,14 +3690,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>209200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>205500</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3769,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-231300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-214300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-198100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-182600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-169800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-156000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-144900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-85600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-75000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +3981,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>252400</v>
+      </c>
+      <c r="E76" s="3">
         <v>133400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>146600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>160400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>171200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>182600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>192000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-85700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-75000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-59800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4032,7 +4231,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -4041,10 +4240,10 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4058,8 +4257,8 @@
       <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>100</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,43 +4613,44 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-400</v>
       </c>
       <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>-400</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,44 +4770,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E94" s="3">
         <v>34600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>26200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>18300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-70000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>134200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>79600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>120100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E102" s="3">
         <v>18600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-60100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>103300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,8 +740,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,8 +796,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,47 +932,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E12" s="3">
         <v>12800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1175,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E17" s="3">
         <v>17200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,8 +1229,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,38 +1241,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1309,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,38 +1319,38 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1100</v>
       </c>
       <c r="I20" s="3">
         <v>1100</v>
       </c>
       <c r="J20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,8 +1363,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,38 +1375,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-15900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1419,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,47 +1475,50 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,13 +1531,16 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1504,11 +1549,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1521,8 +1566,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1542,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1643,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1699,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-59800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +1979,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1922,38 +1991,38 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1100</v>
       </c>
       <c r="I32" s="3">
         <v>-1100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,47 +2035,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-59800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2147,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-59800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2310,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E41" s="3">
         <v>101600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>107800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,41 +2364,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E42" s="3">
         <v>145100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>75100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>95000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>92800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>111700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>128600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>115300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>75500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>23200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2420,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2384,8 +2476,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,41 +2532,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E45" s="3">
         <v>7500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2588,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>235500</v>
+      </c>
+      <c r="E46" s="3">
         <v>254200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>163200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>166600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>175700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>165600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>125500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2644,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,24 +2658,24 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>14500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>8000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>30000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2685,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2596,41 +2700,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2756,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,41 +2924,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3036,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>246200</v>
+      </c>
+      <c r="E54" s="3">
         <v>260900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>140400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>153300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>168500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>179500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>190300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>197900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>129400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>134700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3138,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3192,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,41 +3248,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,41 +3304,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3360,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,13 +3416,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
@@ -3289,7 +3434,7 @@
         <v>600</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -3301,13 +3446,13 @@
         <v>500</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>400</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3327,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3640,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3693,14 +3860,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>209200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>205500</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3942,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-231300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-214300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-182600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-169800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-156000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-144900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-85600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4166,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E76" s="3">
         <v>252400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>133400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>146600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>160400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>171200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>182600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>192000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-85700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-75000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4339,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-59800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,19 +4419,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4243,10 +4441,10 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4260,8 +4458,8 @@
       <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>100</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4753,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,46 +4833,47 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-400</v>
       </c>
       <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>-400</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,47 +4999,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-71500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>34600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>26200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>18300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,47 +5301,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>134200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>79600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>120100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,47 +5413,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E102" s="3">
         <v>51900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-60100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>103300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,8 +744,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +803,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +862,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,50 +946,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E12" s="3">
         <v>14300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1062,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,50 +1202,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E17" s="3">
         <v>18600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,8 +1259,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1241,41 +1271,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1343,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,41 +1353,41 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1100</v>
       </c>
       <c r="J20" s="3">
         <v>1100</v>
       </c>
       <c r="K20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,8 +1400,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1375,41 +1412,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,50 +1518,53 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,17 +1577,20 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1552,11 +1598,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1569,8 +1615,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,50 +1695,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,50 +1754,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-59800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,8 +2049,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1991,41 +2061,41 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1100</v>
       </c>
       <c r="J32" s="3">
         <v>-1100</v>
       </c>
       <c r="K32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,50 +2108,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-59800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,50 +2226,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-59800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,44 +2397,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E41" s="3">
         <v>94200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>101600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>65300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>46400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>47700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>107800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,44 +2454,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E42" s="3">
         <v>133800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>145100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>75100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>95000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>92800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>111700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>128600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>115300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>23200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2423,8 +2513,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2479,8 +2572,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,44 +2631,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,44 +2690,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E46" s="3">
         <v>235500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>254200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>133000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>163200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>166600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>175700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>165600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>125500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>131400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2749,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2661,24 +2766,24 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>14500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>8000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2688,8 +2793,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2703,44 +2808,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E48" s="3">
         <v>10000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2759,8 +2867,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,44 +3044,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>2300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,44 +3162,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>396200</v>
+      </c>
+      <c r="E54" s="3">
         <v>246200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>260900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>140400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>153300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>168500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>179500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>190300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>197900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>129400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>134700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,44 +3269,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,31 +3326,34 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3251,44 +3385,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,44 +3444,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,13 +3503,16 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3419,16 +3562,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
@@ -3437,7 +3583,7 @@
         <v>600</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
@@ -3449,13 +3595,13 @@
         <v>500</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>400</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,44 +3798,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E66" s="3">
         <v>9600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3863,14 +4031,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>209200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>205500</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,44 +4116,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-271200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-249700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-231300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-214300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-198100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-182600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-169800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-156000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-144900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-85600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-75000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,44 +4352,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>349800</v>
+      </c>
+      <c r="E76" s="3">
         <v>236500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>252400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>133400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>146600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>160400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>171200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>182600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>192000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-85700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-75000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,50 +4534,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-59800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4618,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4429,13 +4628,13 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4444,10 +4643,10 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4461,8 +4660,8 @@
       <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>100</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,50 +4970,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,49 +5054,50 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-400</v>
       </c>
       <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>-400</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,50 +5229,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E94" s="3">
         <v>5800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-71500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>34600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>26200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>18300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-52300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,50 +5547,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>134200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>79600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>120100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>51900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>103300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,8 +748,11 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,8 +810,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,8 +872,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,53 +960,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E12" s="3">
         <v>15900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,53 +1229,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E17" s="3">
         <v>21600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1289,11 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1271,44 +1301,44 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,8 +1377,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1353,44 +1387,44 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1100</v>
       </c>
       <c r="K20" s="3">
         <v>1100</v>
       </c>
       <c r="L20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,8 +1437,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1412,44 +1449,44 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1521,53 +1561,56 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,20 +1623,23 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1601,11 +1647,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1664,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,53 +1747,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,53 +1809,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-59800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,8 +2119,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2061,44 +2131,44 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1100</v>
       </c>
       <c r="K32" s="3">
         <v>-1100</v>
       </c>
       <c r="L32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,53 +2181,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-59800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,53 +2305,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-59800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,47 +2484,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>248800</v>
+      </c>
+      <c r="E41" s="3">
         <v>218300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>94200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>101600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>65300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>47700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>107800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,47 +2544,50 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E42" s="3">
         <v>115000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>133800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>145100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>75100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>95000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>92800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>111700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>128600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>115300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>75500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>23200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2516,8 +2606,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,47 +2730,50 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,47 +2792,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>325200</v>
+      </c>
+      <c r="E46" s="3">
         <v>343000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>235500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>254200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>133800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>163200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>166600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>175700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>165600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>125500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>131400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +2854,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2769,24 +2874,24 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>14500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>8000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2901,8 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2811,47 +2916,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E48" s="3">
         <v>51800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2870,8 +2978,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,47 +3164,50 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>2300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,47 +3288,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>368100</v>
+      </c>
+      <c r="E54" s="3">
         <v>396200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>246200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>260900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>140400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>153300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>168500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>179500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>190300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>197900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>129400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>134700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,47 +3400,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,17 +3460,20 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3489,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3388,47 +3522,50 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,47 +3584,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,17 +3646,20 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>35000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3565,19 +3708,22 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
@@ -3586,7 +3732,7 @@
         <v>600</v>
       </c>
       <c r="I62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
@@ -3598,13 +3744,13 @@
         <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>400</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,47 +3956,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E66" s="3">
         <v>46400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4034,14 +4202,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>209200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>205500</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,47 +4290,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-295500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-271200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-249700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-231300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-214300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-198100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-182600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-169800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-156000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-144900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-85600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-75000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,47 +4538,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>328900</v>
+      </c>
+      <c r="E76" s="3">
         <v>349800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>236500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>252400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>133400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>146600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>160400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>171200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>182600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>192000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-85700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-75000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,53 +4729,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-59800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,25 +4817,26 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -4646,10 +4845,10 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4663,8 +4862,8 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>100</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,53 +5187,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,52 +5275,53 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-400</v>
       </c>
       <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>-400</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,53 +5459,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E94" s="3">
         <v>17100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-71500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>34600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>26200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-52300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,53 +5793,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E100" s="3">
         <v>127500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>134200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>79600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>120100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5668,53 +5917,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E102" s="3">
         <v>124700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>51900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-60100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>103300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,8 +752,11 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,8 +817,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,56 +974,57 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E12" s="3">
         <v>18600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2900</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,56 +1256,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E17" s="3">
         <v>24300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,8 +1319,11 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,47 +1331,47 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,8 +1411,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1387,47 +1421,47 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1100</v>
       </c>
       <c r="L20" s="3">
         <v>1100</v>
       </c>
       <c r="M20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,8 +1474,11 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1449,47 +1486,47 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-21000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1564,56 +1604,59 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,23 +1669,26 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1650,11 +1696,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1667,8 +1713,8 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,56 +1799,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,56 +1864,59 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-59800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,8 +2189,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2131,47 +2201,47 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1100</v>
       </c>
       <c r="L32" s="3">
         <v>-1100</v>
       </c>
       <c r="M32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,56 +2254,59 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-59800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,56 +2384,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-59800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,50 +2571,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>262500</v>
+      </c>
+      <c r="E41" s="3">
         <v>248800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>94200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>101600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>65300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>46400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>107800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,50 +2634,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E42" s="3">
         <v>68600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>115000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>133800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>145100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>75100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>95000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>92800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>111700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>128600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>115300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>75500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>23200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,8 +2699,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,50 +2829,53 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,50 +2894,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>303200</v>
+      </c>
+      <c r="E46" s="3">
         <v>325200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>343000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>235500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>254200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>133000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>163200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>166600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>175700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>165600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>125500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2877,24 +2982,24 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>14500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>8000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3009,8 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2919,50 +3024,53 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E48" s="3">
         <v>41300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>51800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,8 +3089,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,50 +3284,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>2300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,50 +3414,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>346700</v>
+      </c>
+      <c r="E54" s="3">
         <v>368100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>396200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>246200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>260900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>140400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>153300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>168500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>179500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>190300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>197900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>129400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>134700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,50 +3531,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,20 +3594,23 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3626,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3525,50 +3659,53 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,50 +3724,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E60" s="3">
         <v>14900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3658,11 +3801,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>35000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3711,22 +3854,25 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E62" s="3">
         <v>24300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
@@ -3735,7 +3881,7 @@
         <v>600</v>
       </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
@@ -3747,13 +3893,13 @@
         <v>500</v>
       </c>
       <c r="N62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>400</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,50 +4114,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E66" s="3">
         <v>39200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4205,14 +4373,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>209200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>205500</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,50 +4464,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-321800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-295500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-271200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-249700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-231300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-214300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-198100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-182600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-169800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-156000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-144900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-85600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-75000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,50 +4724,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>306300</v>
+      </c>
+      <c r="E76" s="3">
         <v>328900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>349800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>236500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>252400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>133400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>146600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>160400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>171200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>182600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>192000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-85700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-75000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,56 +4924,59 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-59800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,28 +5016,29 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4848,10 +5047,10 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4865,8 +5064,8 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>100</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,56 +5404,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,55 +5496,56 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-400</v>
       </c>
       <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>-400</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,56 +5689,59 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E94" s="3">
         <v>45400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>17100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-71500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>34600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>26200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>18300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-70000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-52300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,56 +6039,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>4200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>127500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>134200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>79600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>120100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,56 +6169,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E102" s="3">
         <v>30500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>124700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>51900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-60100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>103300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,84 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,8 +755,11 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,8 +823,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,8 +891,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,59 +987,60 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E12" s="3">
         <v>20300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2900</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1053,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1121,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1170,8 +1189,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1257,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,59 +1282,60 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E17" s="3">
         <v>26200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1348,11 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1331,50 +1360,50 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1416,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,8 +1444,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,47 +1457,47 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1100</v>
       </c>
       <c r="M20" s="3">
         <v>1100</v>
       </c>
       <c r="N20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1477,8 +1510,11 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1486,50 +1522,50 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1578,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1607,59 +1646,62 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,26 +1714,29 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1699,11 +1744,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1761,8 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1737,8 +1782,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,59 +1850,62 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,59 +1918,62 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-59800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +1986,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2122,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,8 +2258,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2204,47 +2273,47 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1100</v>
       </c>
       <c r="M32" s="3">
         <v>-1100</v>
       </c>
       <c r="N32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,59 +2326,62 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-59800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2394,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,59 +2462,62 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-59800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,64 +2530,67 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2603,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,53 +2657,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>222600</v>
+      </c>
+      <c r="E41" s="3">
         <v>262500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>248800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>218300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>94200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>101600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>46400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>107800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,53 +2723,56 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E42" s="3">
         <v>33200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>68600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>115000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>133800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>145100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>75100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>95000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>92800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>111700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>128600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>115300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>75500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>23200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2791,11 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2767,8 +2859,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,53 +2927,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E45" s="3">
         <v>7500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,53 +2995,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>276100</v>
+      </c>
+      <c r="E46" s="3">
         <v>303200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>325200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>343000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>235500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>254200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>133800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>133000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>163200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>166600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>175700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>165600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>125500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>131400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3063,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2985,24 +3089,24 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>14500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>8000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3012,8 +3116,8 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3027,53 +3131,56 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E48" s="3">
         <v>41700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>41300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>51800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3199,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3157,8 +3267,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,53 +3403,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>2300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3471,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,53 +3539,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>323400</v>
+      </c>
+      <c r="E54" s="3">
         <v>346700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>368100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>396200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>246200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>260900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>140400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>153300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>168500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>179500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>190300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>197900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>129400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>134700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3607,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,53 +3661,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,8 +3727,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,12 +3741,12 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3629,8 +3762,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3662,53 +3795,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,53 +3863,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E60" s="3">
         <v>16500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,8 +3931,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3804,11 +3946,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>35000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3857,25 +3999,28 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E62" s="3">
         <v>23900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
@@ -3884,7 +4029,7 @@
         <v>600</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
@@ -3896,13 +4041,13 @@
         <v>500</v>
       </c>
       <c r="O62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>400</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3922,8 +4067,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,53 +4271,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E66" s="3">
         <v>40500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4339,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4376,14 +4543,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>209200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>205500</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4402,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,53 +4637,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-349500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-321800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-295500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-271200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-249700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-231300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-214300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-198100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-182600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-169800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-156000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-144900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-85600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4705,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,53 +4909,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E76" s="3">
         <v>306300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>328900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>349800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>236500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>252400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>146600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>160400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>171200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>182600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>192000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-85700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4977,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,64 +5045,67 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,59 +5118,62 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-59800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5186,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,31 +5214,32 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -5050,10 +5248,10 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -5067,8 +5265,8 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>100</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -5082,8 +5280,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,59 +5620,62 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,8 +5688,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,58 +5716,59 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-400</v>
       </c>
       <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>-400</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5562,8 +5782,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,59 +5918,62 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E94" s="3">
         <v>32800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>45400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>17100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-71500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>34600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>26200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>18300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-52300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5757,8 +5986,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6014,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6080,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,59 +6284,62 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>127500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>134200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>79600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>120100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6107,8 +6352,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6172,59 +6420,62 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E102" s="3">
         <v>13700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>124700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-60100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>103300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,6 +6486,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,92 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
@@ -758,8 +760,14 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,8 +834,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,8 +908,14 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +982,14 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,65 +1014,67 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F12" s="3">
         <v>22400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>20300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>18600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>15900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>14300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>12800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>12900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>9400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>11400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>2900</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1084,14 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1124,8 +1158,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1192,8 +1232,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1260,8 +1306,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,65 +1335,67 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F17" s="3">
         <v>27600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>26200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>24300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>21600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>18600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>17200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>14900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1405,14 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1360,56 +1420,56 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-26200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-24300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-21600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-18600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-17200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-16200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-13600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-14900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-7100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-6800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1419,8 +1479,14 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,8 +1511,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1454,56 +1522,56 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1513,8 +1581,14 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1522,56 +1596,56 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-25400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-23600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-21000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-17900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-16500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-15900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-15200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-12400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-13500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-10900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-9800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-6100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,8 +1655,14 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1649,65 +1729,71 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-26200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-24300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-21500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-18400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-16900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-16200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-12700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-13800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-11100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-9900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-6400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,19 +1803,25 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1741,20 +1833,20 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,11 +1856,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1785,8 +1877,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,65 +1951,71 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-26200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-24300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-18500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-16900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-16200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-12800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-13800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-9900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,65 +2025,71 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-26200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-24300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-18500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-16900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-15500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-13800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-11100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-59800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-18000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-14800</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1989,8 +2099,14 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2057,8 +2173,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2125,8 +2247,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,8 +2321,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2261,8 +2395,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2270,56 +2410,56 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,65 +2469,71 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-26200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-24300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-18500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-16900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-15500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-12800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-13800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-11100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-59800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-18000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-17300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-14800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2397,8 +2543,14 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,65 +2617,71 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-26200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-24300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-18500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-16900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-15500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-12800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-13800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-11100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-59800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-18000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-17300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-14800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2533,70 +2691,76 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2606,8 +2770,14 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,8 +2802,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,59 +2830,61 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>74100</v>
+      </c>
+      <c r="F41" s="3">
         <v>222600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>262500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>248800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>218300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>94200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>101600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>49700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>31100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>65300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>49300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>41000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>46400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>47700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>107800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2726,59 +2900,65 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>158100</v>
+      </c>
+      <c r="F42" s="3">
         <v>43000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>33200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>68600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>115000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>133800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>145100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>75100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>95000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>92800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>111700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>128600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>115300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>75500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>23200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2974,14 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2862,8 +3048,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2930,59 +3122,65 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>9700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2998,59 +3196,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>247300</v>
+      </c>
+      <c r="F46" s="3">
         <v>276100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>303200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>325200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>343000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>235500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>254200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>133800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>133000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>163200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>166600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>175700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>165600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>125500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>131400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3066,64 +3270,70 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>14500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>8000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>11100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>30000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3134,59 +3344,65 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F48" s="3">
         <v>45400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>41700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>41300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>51800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>10000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3202,8 +3418,14 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3270,8 +3492,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3338,8 +3566,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,59 +3640,65 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3714,14 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3542,59 +3788,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>323200</v>
+      </c>
+      <c r="F54" s="3">
         <v>323400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>346700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>368100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>396200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>246200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>260900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>140400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>153300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>168500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>179500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>190300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>197900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>129400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>134700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,8 +3862,14 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,8 +3894,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,59 +3922,61 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3730,8 +3992,14 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3744,15 +4012,15 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3765,11 +4033,11 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3798,59 +4066,65 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F59" s="3">
         <v>16500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>10100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,59 +4140,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30900</v>
+      </c>
+      <c r="F60" s="3">
         <v>18600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4214,14 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,14 +4235,14 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>35000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4002,40 +4288,46 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>37100</v>
+      </c>
+      <c r="F62" s="3">
         <v>23300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>23900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>24300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
@@ -4044,17 +4336,17 @@
         <v>500</v>
       </c>
       <c r="P62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>500</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4070,8 +4362,14 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4436,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4206,8 +4510,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4274,59 +4584,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>67900</v>
+      </c>
+      <c r="F66" s="3">
         <v>41900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>40500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>39200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>46400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4342,8 +4658,14 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,8 +4690,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4436,8 +4760,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,8 +4834,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4546,17 +4882,17 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>209200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>205500</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4572,8 +4908,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4640,59 +4982,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-410200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-378600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-349500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-321800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-295500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-271200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-249700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-231300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-214300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-198100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-182600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-169800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-156000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-144900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-75000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,8 +5056,14 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4776,8 +5130,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +5204,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4912,59 +5278,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>226300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>255300</v>
+      </c>
+      <c r="F76" s="3">
         <v>281500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>306300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>328900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>349800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>236500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>252400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>133400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>146600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>160400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>171200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>182600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>192000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-85700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-75000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4980,8 +5352,14 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5048,70 +5426,76 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5121,65 +5505,71 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-26200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-24300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-18500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-16900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-15500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-12800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-13800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-11100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-59800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-18000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-17300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-14800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5189,8 +5579,14 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,49 +5611,51 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5268,11 +5666,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5283,8 +5681,14 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5351,8 +5755,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,8 +5829,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5487,8 +5903,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5977,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5623,65 +6051,71 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-23300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-19400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-19000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-19900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-13500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-10800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-16000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-16400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-10300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-10100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-10200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-10800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5691,8 +6125,14 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,65 +6157,67 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-2100</v>
       </c>
       <c r="N91" s="3">
         <v>-800</v>
       </c>
       <c r="O91" s="3">
-        <v>-200</v>
+        <v>-2100</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5785,8 +6227,14 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6301,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5921,65 +6375,71 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-117400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-16800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>32800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>45400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>17100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-71500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>34600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>26200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>18300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-70000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-52300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>3600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-13800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-13700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5989,8 +6449,14 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,8 +6481,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6083,8 +6551,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6151,8 +6625,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6219,8 +6699,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6287,65 +6773,71 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>127500</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>131500</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>134200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>79600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>120100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6355,8 +6847,14 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6423,65 +6921,71 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-39900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>13700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>30500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>124700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>51900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>18600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-34200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>16000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-60100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-13600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>103300</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6489,6 +6993,12 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,8 +767,11 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,8 +844,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,8 +921,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,8 +998,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,68 +1029,69 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E12" s="3">
         <v>25800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2900</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,8 +1181,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,11 +1193,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1210,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1238,8 +1258,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,68 +1363,69 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E17" s="3">
         <v>31800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1438,11 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1420,59 +1450,59 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-29200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,8 +1515,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,8 +1546,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1522,11 +1556,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1534,47 +1568,47 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1100</v>
       </c>
       <c r="P20" s="3">
         <v>1100</v>
       </c>
       <c r="Q20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1621,11 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1596,59 +1633,59 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-28400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-13500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,8 +1698,11 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1735,68 +1775,71 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,35 +1852,38 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1845,11 +1891,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1862,8 +1908,8 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1883,8 +1929,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,68 +2006,71 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,68 +2083,71 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-59800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14800</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2105,8 +2160,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,8 +2468,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2410,11 +2480,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2422,47 +2492,47 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1100</v>
       </c>
       <c r="P32" s="3">
         <v>-1100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,68 +2545,71 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-59800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14800</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,8 +2622,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,68 +2699,71 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-59800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14800</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,73 +2776,76 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2858,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,62 +2918,63 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E41" s="3">
         <v>44200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>222600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>262500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>248800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>94200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>65300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>46400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>47700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>107800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,62 +2993,65 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E42" s="3">
         <v>162000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>158100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>68600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>115000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>133800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>145100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>95000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>92800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>111700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>128600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>115300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>75500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>23200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,8 +3070,11 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3054,8 +3147,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3128,62 +3224,65 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>9600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3202,62 +3301,65 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E46" s="3">
         <v>215800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>247300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>276100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>303200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>325200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>343000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>235500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>254200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>133800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>133000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>163200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>166600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>175700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>165600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>125500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>131400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3378,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3302,30 +3407,30 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>14500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>8000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>30000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3335,8 +3440,8 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3350,62 +3455,65 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E48" s="3">
         <v>90000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>74000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>41700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>41300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>51800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3424,8 +3532,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3498,8 +3609,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,62 +3763,65 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1900</v>
       </c>
       <c r="F52" s="3">
         <v>1900</v>
       </c>
       <c r="G52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>2300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3720,8 +3840,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,62 +3917,65 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>272900</v>
+      </c>
+      <c r="E54" s="3">
         <v>308000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>323200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>323400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>346700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>368100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>396200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>246200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>260900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>140400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>153300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>168500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>179500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>190300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>197900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>129400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>134700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,62 +4054,63 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4129,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4018,12 +4152,12 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4173,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4072,62 +4206,65 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E59" s="3">
         <v>33100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4146,62 +4283,65 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E60" s="3">
         <v>38600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4360,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4241,11 +4384,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>35000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4294,34 +4437,37 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E62" s="3">
         <v>43200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>37100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
@@ -4330,7 +4476,7 @@
         <v>600</v>
       </c>
       <c r="N62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>500</v>
@@ -4342,13 +4488,13 @@
         <v>500</v>
       </c>
       <c r="R62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+      <c r="T62" s="3">
+        <v>400</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
@@ -4368,8 +4514,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,62 +4745,65 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E66" s="3">
         <v>81800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>46400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4888,14 +5056,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>209200</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>205500</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,62 +5159,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-440800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-410200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-378600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-349500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-321800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-295500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-271200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-249700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-231300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-214300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-198100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-182600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-169800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-156000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-144900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-85600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-75000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5062,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,62 +5467,65 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E76" s="3">
         <v>226300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>255300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>281500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>306300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>328900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>349800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>236500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>252400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>133400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>146600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>160400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>171200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>182600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>192000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-85700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-75000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5358,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,73 +5621,76 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5511,68 +5703,71 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-59800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14800</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5585,8 +5780,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,40 +5811,41 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
       </c>
       <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
       </c>
       <c r="K83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -5655,10 +5854,10 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5672,8 +5871,8 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>100</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5687,8 +5886,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,68 +6271,71 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6131,8 +6348,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,67 +6379,68 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-400</v>
       </c>
       <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
+      <c r="V91" s="3">
+        <v>-400</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
@@ -6233,8 +6454,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,68 +6608,71 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-117400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>32800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>45400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>17100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-71500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>34600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>26200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>18300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-52300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6455,8 +6685,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,68 +7022,71 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>131500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>134200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>79600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>120100</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6853,8 +7099,11 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6927,68 +7176,71 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-148400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>124700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-60100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>103300</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6999,6 +7251,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
   <si>
     <t>TCRR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,103 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,8 +771,14 @@
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,8 +854,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,8 +937,14 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1020,14 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,74 +1055,76 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F12" s="3">
         <v>24800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>25800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>22300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>22400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>20300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>18600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>15900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>12800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>12900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>12000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>9400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>11400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>8800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>6200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>5400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>5200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>2900</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1134,14 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,26 +1217,32 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>30400</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,11 +1252,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1261,8 +1300,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1338,8 +1383,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,74 +1415,76 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>61400</v>
+      </c>
+      <c r="F17" s="3">
         <v>31100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>31800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>29200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>27600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>26200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>24300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>21600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>18600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>17200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>16200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>13600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>14900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>12100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,8 +1494,14 @@
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1450,65 +1509,65 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-31800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-29200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-24300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-21600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-18600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-17200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-16700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-16200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-13600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-12100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-10800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-8400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-7100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-6800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-4100</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1577,14 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,8 +1612,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1556,65 +1623,65 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,8 +1691,14 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1633,65 +1706,65 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-30800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-28400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-26700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-25400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-23600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-21000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-17900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-16500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-15900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-15200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-12400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-10900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-9800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-7600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-6300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-6100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-3900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1774,14 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1778,74 +1857,80 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-30600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-31500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-29100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-27600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-26200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-24300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-21500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-18400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-16200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-12700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-11100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-9900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-7700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-6400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-6200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4000</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1855,8 +1940,14 @@
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1870,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1888,20 +1979,20 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1911,11 +2002,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1932,8 +2023,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,74 +2106,80 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-30600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-31600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-29100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-27700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-26200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-24300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-21500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-18500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-16900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-16200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-15500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-12800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-11100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-9900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-7700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-6200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4000</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,74 +2189,80 @@
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-30600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-31600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-29100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-27700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-26200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-24300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-21500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-18500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-16900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-16200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-15500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-12800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-11100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-59800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-11400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-18000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-17300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-14800</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,8 +2272,14 @@
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2355,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,8 +2438,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2521,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,8 +2604,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2480,65 +2619,65 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,74 +2687,80 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-30600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-31600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-29100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-27700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-26200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-24300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-21500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-18500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-16900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-16200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-15500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-12800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-11100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-59800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-11400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-18000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-17300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-14800</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2625,8 +2770,14 @@
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,74 +2853,80 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-30600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-31600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-29100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-27700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-26200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-24300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-21500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-18500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-16900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-16200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-15500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-12800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-11100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-59800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-11400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-18000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-17300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-14800</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2779,79 +2936,85 @@
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3024,14 @@
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +3059,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,68 +3090,70 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F41" s="3">
         <v>54000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>44200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>74100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>222600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>262500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>248800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>218300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>94200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>101600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>49700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>31100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>65300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>49300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>41000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>46400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>47700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>107800</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,68 +3169,74 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>95900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>116400</v>
+      </c>
+      <c r="F42" s="3">
         <v>122000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>162000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>158100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>43000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>33200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>68600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>115000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>133800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>145100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>75100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>95000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>92800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>111700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>128600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>115300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>75500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>23200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3073,8 +3252,14 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3150,8 +3335,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3227,68 +3418,74 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>9000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>6100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3304,68 +3501,74 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>177600</v>
+      </c>
+      <c r="F46" s="3">
         <v>184100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>215800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>247300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>276100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>303200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>325200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>343000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>235500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>254200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>133800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>133000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>163200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>166600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>175700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>165600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>125500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>131400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3584,14 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3410,44 +3619,44 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>14500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3">
         <v>8000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>11100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>30000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3458,68 +3667,74 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F48" s="3">
         <v>86800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>90000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>74000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>45400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>41700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>41300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>51800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,8 +3750,14 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3612,8 +3833,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3916,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,68 +3999,74 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3843,8 +4082,14 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,68 +4165,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>208200</v>
+      </c>
+      <c r="F54" s="3">
         <v>272900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>308000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>323200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>323400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>346700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>368100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>396200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>246200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>260900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>140400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>153300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>168500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>179500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>190300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>197900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>129400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>134700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4248,14 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4283,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,68 +4314,70 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4132,38 +4393,44 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4176,11 +4443,11 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4209,68 +4476,74 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>61300</v>
+      </c>
+      <c r="F59" s="3">
         <v>33700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>33100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>26400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>10100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4286,68 +4559,74 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F60" s="3">
         <v>36700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>38600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>30900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>14900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4642,14 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4387,14 +4672,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>35000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4440,49 +4725,55 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
         <v>37700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>43200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>37100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>23300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>23900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>24300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
       </c>
       <c r="O62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
@@ -4491,17 +4782,17 @@
         <v>500</v>
       </c>
       <c r="S62" s="3">
+        <v>500</v>
+      </c>
+      <c r="T62" s="3">
+        <v>500</v>
+      </c>
+      <c r="U62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4517,8 +4808,14 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4891,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4974,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,68 +5057,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>67400</v>
+      </c>
+      <c r="F66" s="3">
         <v>74400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>81800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>67900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>41900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>40500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>39200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>46400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +5140,14 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5175,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5254,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5337,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5059,17 +5394,17 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>209200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>205500</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5085,8 +5420,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,68 +5503,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-541700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-501300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-440800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-410200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-378600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-349500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-321800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-295500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-271200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-249700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-231300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-214300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-198100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-182600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-169800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-156000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-144900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-85600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-75000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5239,8 +5586,14 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5669,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5752,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,68 +5835,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>140900</v>
+      </c>
+      <c r="F76" s="3">
         <v>198600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>226300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>255300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>281500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>306300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>328900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>349800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>236500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>252400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>133400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>146600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>160400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>171200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>182600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>192000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-85700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-75000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5547,8 +5918,14 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,79 +6001,85 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5706,74 +6089,80 @@
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-30600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-31600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-29100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-27700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-26200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-24300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-21500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-18500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-16900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-16200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-15500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-12800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-11100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-59800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-11400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-18000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-17300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-14800</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5783,8 +6172,14 @@
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,58 +6207,60 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
       </c>
       <c r="F83" s="3">
+        <v>900</v>
+      </c>
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5874,11 +6271,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -5889,8 +6286,14 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6369,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6452,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6535,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6618,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,74 +6701,80 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-25800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-19500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-31100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-23300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-19400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-19000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-19900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-13500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-10800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-16000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-16400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-10300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-10200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-10800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-6400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-4700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-3000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6351,8 +6784,14 @@
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,74 +6819,76 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G91" s="3">
-        <v>-6700</v>
+        <v>-6200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="I91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q91" s="3">
         <v>-800</v>
       </c>
       <c r="R91" s="3">
-        <v>-200</v>
+        <v>-2100</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
       </c>
       <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6457,8 +6898,14 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6981,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,74 +7064,80 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F94" s="3">
         <v>35600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-10300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-117400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-16800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>32800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>45400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>17100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>5800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-71500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>34600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-17800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>26200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>18300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-70000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-52300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>3600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-13800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-13700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6688,8 +7147,14 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +7182,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7261,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7344,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7427,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,13 +7510,19 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7040,59 +7531,59 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>131500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>134200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>79600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>4900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>120100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7102,8 +7593,14 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7179,74 +7676,80 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="F102" s="3">
         <v>9800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-29900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-148400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-39900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>30500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>124700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>51900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>18600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-34200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>16000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>8500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-5400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-60100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-13600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>103300</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7254,6 +7757,12 @@
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
